--- a/reports/vivado/LoopUnrollingFactor2Solution/power/LoopUnrollingFactor2DSPPowerReport.xlsx
+++ b/reports/vivado/LoopUnrollingFactor2Solution/power/LoopUnrollingFactor2DSPPowerReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Utilization</t>
   </si>
@@ -44,10 +44,10 @@
     <t/>
   </si>
   <si>
-    <t>tmp_8_reg_375_reg__0 (DSP48E1)</t>
-  </si>
-  <si>
-    <t>ap_clk_IBUF</t>
+    <t>tmp_8_reg_295_reg__0 (DSP48E1)</t>
+  </si>
+  <si>
+    <t>ap_clk_IBUF_BUFG</t>
   </si>
   <si>
     <t>Yes</t>
@@ -56,13 +56,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>tmp_8_fu_269_p2 (DSP48E1)</t>
-  </si>
-  <si>
-    <t>tmp_4_reg_380_reg__0 (DSP48E1)</t>
-  </si>
-  <si>
-    <t>tmp_4_fu_277_p2 (DSP48E1)</t>
+    <t>tmp_8_fu_234_p2 (DSP48E1)</t>
   </si>
 </sst>
 </file>
@@ -178,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.0011144292075186968</v>
+        <v>2.6825189706869423E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -204,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>6.751572364009917E-4</v>
+        <v>1.4868155994918197E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -225,12 +219,12 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>28.720720291137695</v>
+        <v>5.592040061950684</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>2.1845226001460105E-4</v>
+        <v>1.1957034439546987E-4</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>14</v>
@@ -251,59 +245,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>9.2758150100708</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="1">
-      <c r="A5" t="n" s="5">
-        <v>1.8117480794899166E-4</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="C5" t="n" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="H5" t="n" s="2">
-        <v>7.380231857299805</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="1">
-      <c r="A6" t="n" s="5">
-        <v>3.9644859498366714E-5</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="H6" t="n" s="2">
-        <v>1.4414900541305542</v>
+        <v>4.718714237213135</v>
       </c>
     </row>
   </sheetData>
